--- a/TimesheetManagementTool/src/test/resources/TestData/ActitimeLoginData.xlsx
+++ b/TimesheetManagementTool/src/test/resources/TestData/ActitimeLoginData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\DelhiProject\TimesheetManagementTool\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8187011E-DDA8-478A-8FE2-4F983E1EE291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4537CE2-3280-4825-B81F-18CE2B57CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5524F8E8-075B-42E0-987F-35B5642BB8EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5524F8E8-075B-42E0-987F-35B5642BB8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCred" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +38,45 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admjdnc</t>
+  </si>
+  <si>
+    <t>jhcbhjds</t>
+  </si>
+  <si>
+    <t>fghnhj</t>
+  </si>
+  <si>
+    <t>ghjbnm,</t>
+  </si>
+  <si>
+    <t>ghjk</t>
+  </si>
+  <si>
+    <t>fghjkm</t>
+  </si>
+  <si>
+    <t>fghjkl</t>
+  </si>
+  <si>
+    <t>fghbn</t>
+  </si>
+  <si>
+    <t>tyft</t>
+  </si>
+  <si>
+    <t>gbhij</t>
+  </si>
+  <si>
+    <t>uubh</t>
   </si>
 </sst>
 </file>
@@ -101,10 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF1926-ED9B-47D7-8F04-9013F8395530}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="382" workbookViewId="0">
+    <sheetView zoomScale="382" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -446,4 +487,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338EAA0B-CB20-4752-88F5-D3DBAA4EA269}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="203" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TimesheetManagementTool/src/test/resources/TestData/ActitimeLoginData.xlsx
+++ b/TimesheetManagementTool/src/test/resources/TestData/ActitimeLoginData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\DelhiProject\TimesheetManagementTool\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4537CE2-3280-4825-B81F-18CE2B57CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBDC50-B8E9-42BC-AE3B-F1734828ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5524F8E8-075B-42E0-987F-35B5642BB8EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5524F8E8-075B-42E0-987F-35B5642BB8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCred" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidData" sheetId="2" r:id="rId2"/>
+    <sheet name="UserData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -77,6 +78,21 @@
   </si>
   <si>
     <t>uubh</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>anshu</t>
+  </si>
+  <si>
+    <t>anshu@123</t>
+  </si>
+  <si>
+    <t>singh</t>
   </si>
 </sst>
 </file>
@@ -493,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338EAA0B-CB20-4752-88F5-D3DBAA4EA269}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="203" workbookViewId="0">
+    <sheetView zoomScale="203" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +582,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E428312-00CB-4EA0-81CC-B88621E3B123}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>